--- a/data/customers.xlsx
+++ b/data/customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,9 +521,7 @@
           <t>Fahad Ahmed Mohammed</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>502992932</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Abu Dhabi - Al Shamkha</t>
@@ -541,7 +539,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
     </row>
@@ -627,7 +625,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-17</t>
         </is>
       </c>
     </row>
@@ -637,8 +635,10 @@
           <t>Mr Nader</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>503535395</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0503535395</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -661,120 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Fahad Ahmed</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>502992932</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Abu Dhabi - Al Shamkha</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mr Bukhari</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Abu Dhabi - Al Shamkha</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0502992932</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Abu Dhabi - Al Shamkha</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Fahaf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Abu Dhabi - Al Shamkha</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
